--- a/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{807076DC-546F-43F0-A7B5-6AE99825ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F17BDA3-B8F0-4A8F-83C5-C48FC9249CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C351B9BB-0AE6-4C41-B71C-A761E0FEE21A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC345198-E0B4-45AC-9E82-09E3D53DB9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>71,57%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>69,89%</t>
+    <t>68,89%</t>
   </si>
   <si>
     <t>88,04%</t>
@@ -92,10 +92,10 @@
     <t>75,54%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -104,28 +104,28 @@
     <t>15,54%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -134,28 +134,28 @@
     <t>12,89%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>4,04%</t>
@@ -224,328 +224,325 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,38%</t>
+    <t>13,01%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>3,74%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -554,82 +551,76 @@
     <t>74,46%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -638,157 +629,157 @@
     <t>86,17%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>17,17%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1203,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FADD8E4-D7ED-426A-98E1-7A7D235F225C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99317F4-C367-4799-884B-1AD1D404F814}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1754,13 +1745,13 @@
         <v>18690</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -1769,13 +1760,13 @@
         <v>43728</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1781,13 @@
         <v>3603</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1805,13 +1796,13 @@
         <v>3976</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1820,13 +1811,13 @@
         <v>7579</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1832,13 @@
         <v>5552</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1856,13 +1847,13 @@
         <v>6103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1871,13 +1862,13 @@
         <v>11655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,7 +1924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1945,13 +1936,13 @@
         <v>42979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -1960,13 +1951,13 @@
         <v>35458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -1975,13 +1966,13 @@
         <v>78436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +1987,13 @@
         <v>1146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2014,10 +2005,10 @@
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2026,13 +2017,13 @@
         <v>1146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2038,13 @@
         <v>10812</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2062,13 +2053,13 @@
         <v>8127</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2077,13 +2068,13 @@
         <v>18939</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2130,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2142,13 @@
         <v>13431</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2166,13 +2157,13 @@
         <v>8949</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2181,13 +2172,13 @@
         <v>22381</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2193,13 @@
         <v>759</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2217,13 +2208,13 @@
         <v>1812</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2232,13 +2223,13 @@
         <v>2571</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2244,13 @@
         <v>1003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2271,10 +2262,10 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2283,13 +2274,13 @@
         <v>1003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,7 +2336,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2357,13 +2348,13 @@
         <v>28271</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2372,13 +2363,13 @@
         <v>20422</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -2387,13 +2378,13 @@
         <v>48693</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2399,13 @@
         <v>1708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2423,13 +2414,13 @@
         <v>4431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2438,13 +2429,13 @@
         <v>6140</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2450,13 @@
         <v>8352</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2474,13 +2465,13 @@
         <v>1830</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2489,13 +2480,13 @@
         <v>10183</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2542,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2554,13 @@
         <v>62995</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
@@ -2578,13 +2569,13 @@
         <v>87116</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -2593,13 +2584,13 @@
         <v>150111</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2605,13 @@
         <v>10446</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2629,13 +2620,13 @@
         <v>9063</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -2644,13 +2635,13 @@
         <v>19509</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2656,13 @@
         <v>11166</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2680,13 +2671,13 @@
         <v>17902</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -2695,13 +2686,13 @@
         <v>29068</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2748,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2760,13 @@
         <v>97643</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -2784,13 +2775,13 @@
         <v>59602</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
@@ -2799,13 +2790,13 @@
         <v>157246</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2811,13 @@
         <v>5795</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2835,13 +2826,13 @@
         <v>7505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -2850,13 +2841,13 @@
         <v>13300</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2862,13 @@
         <v>9882</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -2886,13 +2877,13 @@
         <v>10675</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -2901,13 +2892,13 @@
         <v>20557</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2966,13 @@
         <v>353647</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>413</v>
@@ -2990,13 +2981,13 @@
         <v>309646</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>688</v>
@@ -3005,13 +2996,13 @@
         <v>663293</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3017,13 @@
         <v>46596</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -3041,13 +3032,13 @@
         <v>41734</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
@@ -3056,13 +3047,13 @@
         <v>88330</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3068,13 @@
         <v>55284</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>65</v>
@@ -3092,13 +3083,13 @@
         <v>52033</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>115</v>
@@ -3107,13 +3098,13 @@
         <v>107317</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3160,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F17BDA3-B8F0-4A8F-83C5-C48FC9249CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9401493-09FB-45A8-B1E9-3436A4D81A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC345198-E0B4-45AC-9E82-09E3D53DB9F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27A29F47-ED6F-4234-9F3E-A3ABD25FD557}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99317F4-C367-4799-884B-1AD1D404F814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057B69D8-19CB-4CD7-8275-3BFFD6F74077}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9401493-09FB-45A8-B1E9-3436A4D81A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B9A6AE-2B94-41B2-BB01-6F2E696DD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27A29F47-ED6F-4234-9F3E-A3ABD25FD557}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{339D0727-14B9-468A-A848-CFE8F883AD60}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>71,57%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>68,89%</t>
+    <t>69,89%</t>
   </si>
   <si>
     <t>88,04%</t>
@@ -92,694 +92,703 @@
     <t>75,54%</t>
   </si>
   <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>Sí, parcialmente</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>Sí, totalmente</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>Sí, parcialmente</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>Sí, totalmente</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>7,83%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>16,44%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057B69D8-19CB-4CD7-8275-3BFFD6F74077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5959D93B-FB3B-4704-956F-70E1FE52CB35}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,13 +1754,13 @@
         <v>18690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -1760,13 +1769,13 @@
         <v>43728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1790,13 @@
         <v>3603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1796,13 +1805,13 @@
         <v>3976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1811,13 +1820,13 @@
         <v>7579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1841,13 @@
         <v>5552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1847,13 +1856,13 @@
         <v>6103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1862,13 +1871,13 @@
         <v>11655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,7 +1933,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1936,13 +1945,13 @@
         <v>42979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -1951,13 +1960,13 @@
         <v>35458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -1966,13 +1975,13 @@
         <v>78436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1996,13 @@
         <v>1146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2005,10 +2014,10 @@
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2017,13 +2026,13 @@
         <v>1146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2047,13 @@
         <v>10812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2053,13 +2062,13 @@
         <v>8127</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2068,13 +2077,13 @@
         <v>18939</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2139,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2142,13 +2151,13 @@
         <v>13431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2157,13 +2166,13 @@
         <v>8949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2172,13 +2181,13 @@
         <v>22381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2202,13 @@
         <v>759</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2208,13 +2217,13 @@
         <v>1812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2223,13 +2232,13 @@
         <v>2571</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2253,13 @@
         <v>1003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2262,10 +2271,10 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2274,13 +2283,13 @@
         <v>1003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2345,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2348,13 +2357,13 @@
         <v>28271</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2363,13 +2372,13 @@
         <v>20422</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -2378,13 +2387,13 @@
         <v>48693</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2408,13 @@
         <v>1708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2414,13 +2423,13 @@
         <v>4431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2429,13 +2438,13 @@
         <v>6140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2459,13 @@
         <v>8352</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2465,13 +2474,13 @@
         <v>1830</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2480,13 +2489,13 @@
         <v>10183</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,7 +2551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2554,13 +2563,13 @@
         <v>62995</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
@@ -2569,13 +2578,13 @@
         <v>87116</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -2584,13 +2593,13 @@
         <v>150111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2614,13 @@
         <v>10446</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2620,13 +2629,13 @@
         <v>9063</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -2635,13 +2644,13 @@
         <v>19509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2665,13 @@
         <v>11166</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2671,13 +2680,13 @@
         <v>17902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -2686,13 +2695,13 @@
         <v>29068</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2757,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2769,13 @@
         <v>97643</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -2775,13 +2784,13 @@
         <v>59602</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
@@ -2790,13 +2799,13 @@
         <v>157246</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2820,13 @@
         <v>5795</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2826,13 +2835,13 @@
         <v>7505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -2841,13 +2850,13 @@
         <v>13300</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2871,13 @@
         <v>9882</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -2877,13 +2886,13 @@
         <v>10675</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -2892,13 +2901,13 @@
         <v>20557</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2975,13 @@
         <v>353647</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>413</v>
@@ -2981,13 +2990,13 @@
         <v>309646</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>688</v>
@@ -2996,13 +3005,13 @@
         <v>663293</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3026,13 @@
         <v>46596</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -3032,13 +3041,13 @@
         <v>41734</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
@@ -3047,13 +3056,13 @@
         <v>88330</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3077,13 @@
         <v>55284</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="H38" s="7">
         <v>65</v>
@@ -3083,13 +3092,13 @@
         <v>52033</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>115</v>
@@ -3098,13 +3107,13 @@
         <v>107317</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3169,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B9A6AE-2B94-41B2-BB01-6F2E696DD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7693AD3F-4538-4D94-9586-3AB8C9C854A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{339D0727-14B9-468A-A848-CFE8F883AD60}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E92B8C69-0E61-4C5B-B93D-EA35FE626331}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,724 +71,724 @@
     <t>No</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1203,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5959D93B-FB3B-4704-956F-70E1FE52CB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA156B2-3B44-4EA3-B419-3D6A9520FB69}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,7 +1324,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>31342</v>
+        <v>36319</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1339,7 +1339,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>31321</v>
+        <v>33966</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1354,7 +1354,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>62663</v>
+        <v>70285</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6806</v>
+        <v>8285</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1390,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>5687</v>
+        <v>5938</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>12493</v>
+        <v>14222</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1426,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>5644</v>
+        <v>6525</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2148</v>
+        <v>2257</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>7793</v>
+        <v>8782</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1477,7 +1477,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>43792</v>
+        <v>51129</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1492,7 +1492,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="7">
-        <v>39156</v>
+        <v>42161</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1507,7 +1507,7 @@
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>82949</v>
+        <v>93290</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1530,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>51947</v>
+        <v>51813</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1545,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>48088</v>
+        <v>44955</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1560,7 +1560,7 @@
         <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>100034</v>
+        <v>96768</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1581,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>16333</v>
+        <v>15918</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>9260</v>
+        <v>8757</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1611,7 +1611,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="7">
-        <v>25593</v>
+        <v>24675</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1632,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2873</v>
+        <v>2785</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5247</v>
+        <v>4939</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1662,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8119</v>
+        <v>7724</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1683,7 +1683,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>71152</v>
+        <v>70517</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1698,7 +1698,7 @@
         <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>62594</v>
+        <v>58651</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1713,7 +1713,7 @@
         <v>120</v>
       </c>
       <c r="N11" s="7">
-        <v>133746</v>
+        <v>129168</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>25038</v>
+        <v>24677</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>18690</v>
+        <v>17483</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1766,7 +1766,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>43728</v>
+        <v>42160</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1787,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3603</v>
+        <v>3468</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1802,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>3976</v>
+        <v>3732</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1817,16 +1817,16 @@
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>7579</v>
+        <v>7199</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,46 +1838,46 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>5552</v>
+        <v>5320</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>6103</v>
+        <v>5744</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>11655</v>
+        <v>11063</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>34193</v>
+        <v>33464</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1904,7 +1904,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="7">
-        <v>28769</v>
+        <v>26958</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1919,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="N15" s="7">
-        <v>62962</v>
+        <v>60422</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1942,46 +1942,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>42979</v>
+        <v>41099</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>35458</v>
+        <v>32860</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>78436</v>
+        <v>73959</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,16 +1993,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1146</v>
+        <v>956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1146</v>
+        <v>956</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>110</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>10812</v>
+        <v>10352</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
@@ -2059,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>8127</v>
+        <v>7596</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -2074,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>18939</v>
+        <v>17948</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -2095,7 +2095,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>54937</v>
+        <v>52407</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2110,7 +2110,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>43585</v>
+        <v>40456</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2125,7 +2125,7 @@
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>98521</v>
+        <v>92863</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2148,7 +2148,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>13431</v>
+        <v>12143</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>122</v>
@@ -2163,7 +2163,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>8949</v>
+        <v>8210</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>125</v>
@@ -2178,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>22381</v>
+        <v>20353</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>128</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>131</v>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>1812</v>
+        <v>1660</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>133</v>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>2571</v>
+        <v>2345</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>136</v>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>139</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>142</v>
@@ -2301,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>15194</v>
+        <v>13741</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2316,7 +2316,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>10761</v>
+        <v>9870</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2331,7 +2331,7 @@
         <v>45</v>
       </c>
       <c r="N23" s="7">
-        <v>25955</v>
+        <v>23611</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2354,7 +2354,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>28271</v>
+        <v>27456</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -2369,7 +2369,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>20422</v>
+        <v>18964</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
@@ -2384,7 +2384,7 @@
         <v>60</v>
       </c>
       <c r="N24" s="7">
-        <v>48693</v>
+        <v>46420</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>151</v>
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1708</v>
+        <v>1643</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>154</v>
@@ -2420,31 +2420,31 @@
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>4431</v>
+        <v>4163</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>6140</v>
+        <v>5806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,46 +2456,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>8352</v>
+        <v>7926</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>1830</v>
+        <v>1695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>10183</v>
+        <v>9621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2507,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="7">
-        <v>38332</v>
+        <v>37025</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2522,7 +2522,7 @@
         <v>39</v>
       </c>
       <c r="I27" s="7">
-        <v>26683</v>
+        <v>24822</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2537,7 +2537,7 @@
         <v>83</v>
       </c>
       <c r="N27" s="7">
-        <v>65015</v>
+        <v>61847</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2560,46 +2560,46 @@
         <v>58</v>
       </c>
       <c r="D28" s="7">
-        <v>62995</v>
+        <v>62475</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
       </c>
       <c r="I28" s="7">
-        <v>87116</v>
+        <v>81763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
       </c>
       <c r="N28" s="7">
-        <v>150111</v>
+        <v>144239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,46 +2611,46 @@
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>10446</v>
+        <v>10166</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>9063</v>
+        <v>8465</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>19509</v>
+        <v>18631</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,46 +2662,46 @@
         <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>11166</v>
+        <v>10807</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
       </c>
       <c r="I30" s="7">
-        <v>17902</v>
+        <v>16841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
       </c>
       <c r="N30" s="7">
-        <v>29068</v>
+        <v>27648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="7">
-        <v>84606</v>
+        <v>83448</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2728,7 +2728,7 @@
         <v>150</v>
       </c>
       <c r="I31" s="7">
-        <v>114082</v>
+        <v>107069</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2743,7 +2743,7 @@
         <v>230</v>
       </c>
       <c r="N31" s="7">
-        <v>198688</v>
+        <v>190518</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2766,46 +2766,46 @@
         <v>38</v>
       </c>
       <c r="D32" s="7">
-        <v>97643</v>
+        <v>283547</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
       </c>
       <c r="I32" s="7">
-        <v>59602</v>
+        <v>49885</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
       </c>
       <c r="N32" s="7">
-        <v>157246</v>
+        <v>333432</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>5795</v>
+        <v>4875</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>210</v>
@@ -2832,13 +2832,13 @@
         <v>10</v>
       </c>
       <c r="I33" s="7">
-        <v>7505</v>
+        <v>6324</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>212</v>
@@ -2847,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="N33" s="7">
-        <v>13300</v>
+        <v>11198</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>213</v>
@@ -2868,7 +2868,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="7">
-        <v>9882</v>
+        <v>8376</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>216</v>
@@ -2883,7 +2883,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="7">
-        <v>10675</v>
+        <v>8479</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>219</v>
@@ -2898,7 +2898,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="7">
-        <v>20557</v>
+        <v>16855</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>222</v>
@@ -2919,7 +2919,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="7">
-        <v>113320</v>
+        <v>296797</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2934,7 +2934,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="7">
-        <v>77782</v>
+        <v>64688</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2949,7 +2949,7 @@
         <v>139</v>
       </c>
       <c r="N35" s="7">
-        <v>191102</v>
+        <v>361485</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2972,7 +2972,7 @@
         <v>275</v>
       </c>
       <c r="D36" s="7">
-        <v>353647</v>
+        <v>539529</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>225</v>
@@ -2987,7 +2987,7 @@
         <v>413</v>
       </c>
       <c r="I36" s="7">
-        <v>309646</v>
+        <v>288086</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>228</v>
@@ -3002,7 +3002,7 @@
         <v>688</v>
       </c>
       <c r="N36" s="7">
-        <v>663293</v>
+        <v>827615</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>231</v>
@@ -3023,46 +3023,46 @@
         <v>44</v>
       </c>
       <c r="D37" s="7">
-        <v>46596</v>
+        <v>45996</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
       </c>
       <c r="I37" s="7">
-        <v>41734</v>
+        <v>39038</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
       </c>
       <c r="N37" s="7">
-        <v>88330</v>
+        <v>85034</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,22 +3074,22 @@
         <v>50</v>
       </c>
       <c r="D38" s="7">
-        <v>55284</v>
+        <v>53004</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H38" s="7">
         <v>65</v>
       </c>
       <c r="I38" s="7">
-        <v>52033</v>
+        <v>47551</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>245</v>
@@ -3104,7 +3104,7 @@
         <v>115</v>
       </c>
       <c r="N38" s="7">
-        <v>107317</v>
+        <v>100556</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>248</v>
@@ -3125,7 +3125,7 @@
         <v>369</v>
       </c>
       <c r="D39" s="7">
-        <v>455526</v>
+        <v>638529</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3140,7 +3140,7 @@
         <v>541</v>
       </c>
       <c r="I39" s="7">
-        <v>403413</v>
+        <v>374675</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3155,7 +3155,7 @@
         <v>910</v>
       </c>
       <c r="N39" s="7">
-        <v>858939</v>
+        <v>1013204</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
